--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0205 - Validasi Field report PHR pada searching portal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0205 - Validasi Field report PHR pada searching portal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA3AE7F-5897-4767-95A6-61CF62FB496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4ABA37-B0CD-42D2-A925-377093654556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,15 +517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
